--- a/data files/Purchase Order/TULIP INTERNATIONAL.xlsx
+++ b/data files/Purchase Order/TULIP INTERNATIONAL.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D495D020-67A5-40E5-9935-42F781B24B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D37C3C4-1D55-49C3-B077-4BFC2014C86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5736" yWindow="0" windowWidth="17304" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +183,6 @@
       <i/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -342,12 +335,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,40 +357,39 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -407,11 +399,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -423,9 +415,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -787,140 +779,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="42" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.4">
+      <c r="A1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="37" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="36" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="20"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="23" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="22"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="23"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="20"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="21"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="20"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -929,141 +921,144 @@
       <c r="D12" s="4"/>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="41" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="38" t="s">
+    <row r="14" spans="1:7" s="40" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="30" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-    </row>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="32">
+    <row r="15" spans="1:7" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
         <v>1</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C16" s="32">
         <v>200</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="43">
+      <c r="E16" s="42">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="32">
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
         <v>2</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="32">
         <v>1500</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="43">
+      <c r="E17" s="42">
         <v>136</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="32">
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
         <v>3</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C18" s="32">
         <v>20</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <v>136</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="34"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="32">
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="33"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
         <v>4</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="32">
         <v>50</v>
       </c>
-      <c r="D20" s="42" t="s">
+      <c r="D20" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="34"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="33"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D27" s="9"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D28" s="12"/>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D28" s="11"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" s="12"/>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
@@ -1081,7 +1076,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
